--- a/10250_0020.xlsx
+++ b/10250_0020.xlsx
@@ -4242,256 +4242,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId165"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>430</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="166" name="Image 166" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId166"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>430</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="167" name="Image 167" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId167"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>430</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="168" name="Image 168" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId168"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>430</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="169" name="Image 169" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId169"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>430</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="170" name="Image 170" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId170"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>443</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="171" name="Image 171" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId171"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>443</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="172" name="Image 172" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId172"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>443</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="173" name="Image 173" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId173"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>443</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="174" name="Image 174" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId174"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>443</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="175" name="Image 175" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId175"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4794,7 +4544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6265,92 +6015,6 @@
       <c r="I34" t="inlineStr">
         <is>
           <t>cuts/103.0009314,0.5847422_10250_0020_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>102.8169608_0.3111770_10250_0020_34</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>102.8169608</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.311177</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>cuts/102.8169608,0.3111770_10250_0020_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>cuts/102.8169608,0.3111770_10250_0020_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>cuts/102.8169608,0.3111770_10250_0020_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>cuts/102.8169608,0.3111770_10250_0020_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>cuts/102.8169608,0.3111770_10250_0020_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>102.8170056_0.3112443_10250_0020_35</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>102.8170056</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.3112443</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>cuts/102.8170056,0.3112443_10250_0020_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>cuts/102.8170056,0.3112443_10250_0020_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>cuts/102.8170056,0.3112443_10250_0020_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>cuts/102.8170056,0.3112443_10250_0020_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>cuts/102.8170056,0.3112443_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R444"/>
+  <dimension ref="A1:R418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6648,20 +6312,6 @@
         </is>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>102.8169608_0.3111770_10250_0020_34</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>102.8170056_0.3112443_10250_0020_35</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/10250_0020.xlsx
+++ b/10250_0020.xlsx
@@ -4544,7 +4544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4598,6 +4598,86 @@
           <t>3.5-micron Filter</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>I4 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>I4 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>I2 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>I2 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>I1 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>I1 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>I3 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>I3 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>I4 Contrast</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>I4 Bias</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>I2 Contrast</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>I2 Bias</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>I1 Contrast</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>I1 Bias</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>I3 Contrast</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>I3 Bias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4641,6 +4721,54 @@
           <t>cuts/102.9370469,0.6842495_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4684,6 +4812,54 @@
           <t>cuts/102.7656075,0.3486943_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4727,6 +4903,54 @@
           <t>cuts/103.0281882,0.2962455_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4770,6 +4994,54 @@
           <t>cuts/102.9800883,0.1782603_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4813,6 +5085,54 @@
           <t>cuts/102.4223663,0.3171058_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4856,6 +5176,54 @@
           <t>cuts/102.9840967,0.5525762_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4899,6 +5267,54 @@
           <t>cuts/102.9580943,0.4942436_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4942,6 +5358,54 @@
           <t>cuts/102.9099214,0.2915782_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4985,6 +5449,54 @@
           <t>cuts/102.8749226,0.3580790_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5028,6 +5540,54 @@
           <t>cuts/102.7549205,0.3472147_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5071,6 +5631,54 @@
           <t>cuts/102.6302829,0.0458828_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5114,6 +5722,54 @@
           <t>cuts/102.6207184,0.3326496_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5157,6 +5813,54 @@
           <t>cuts/102.1178002,0.8076055_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5200,6 +5904,54 @@
           <t>cuts/102.9531795,0.7753987_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5243,6 +5995,54 @@
           <t>cuts/103.0139373,0.7594086_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5286,6 +6086,54 @@
           <t>cuts/103.0082707,0.7677421_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5329,6 +6177,54 @@
           <t>cuts/102.8464243,0.4612463_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5372,6 +6268,54 @@
           <t>cuts/102.9887513,0.1452427_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5415,6 +6359,54 @@
           <t>cuts/102.7357506,0.1450816_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5458,6 +6450,54 @@
           <t>cuts/102.5944209,0.8429164_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5501,6 +6541,54 @@
           <t>cuts/102.6284775,0.1977494_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5544,6 +6632,54 @@
           <t>cuts/102.6088207,0.2618794_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K23" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5587,6 +6723,54 @@
           <t>cuts/102.3072053,0.6480353_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5630,6 +6814,54 @@
           <t>cuts/102.2902411,0.7899153_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5673,6 +6905,54 @@
           <t>cuts/102.9406022,0.8079108_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K26" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5716,6 +6996,54 @@
           <t>cuts/102.9851264,0.4775254_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5759,6 +7087,54 @@
           <t>cuts/103.0079147,0.4893950_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K28" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5802,6 +7178,54 @@
           <t>cuts/102.8132253,0.3116171_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O29" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5845,6 +7269,54 @@
           <t>cuts/102.5757850,0.4734031_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5888,6 +7360,54 @@
           <t>cuts/102.2203606,0.5847606_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5931,6 +7451,54 @@
           <t>cuts/103.0078331,0.6238081_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K32" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5974,6 +7542,54 @@
           <t>cuts/102.5090833,-0.0044167_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K33" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.567057</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6016,6 +7632,54 @@
         <is>
           <t>cuts/103.0009314,0.5847422_10250_0020_Azul-3.5micras.jpeg</t>
         </is>
+      </c>
+      <c r="J34" t="n">
+        <v>3.0954</v>
+      </c>
+      <c r="K34" t="n">
+        <v>11.9371</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5.61279</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5.44242</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-1.58671</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>22.5305</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.516276</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.37925</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.567057</v>
       </c>
     </row>
   </sheetData>
